--- a/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H2">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I2">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J2">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4780344832873</v>
+        <v>33.6320075</v>
       </c>
       <c r="N2">
-        <v>33.4780344832873</v>
+        <v>67.264015</v>
       </c>
       <c r="O2">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P2">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q2">
-        <v>44.34919528958216</v>
+        <v>45.19536431865</v>
       </c>
       <c r="R2">
-        <v>44.34919528958216</v>
+        <v>180.7814572746</v>
       </c>
       <c r="S2">
-        <v>0.01625348537791573</v>
+        <v>0.01522138115630649</v>
       </c>
       <c r="T2">
-        <v>0.01625348537791573</v>
+        <v>0.008739246360174903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H3">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I3">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J3">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1766780937579</v>
+        <v>12.015213</v>
       </c>
       <c r="N3">
-        <v>11.1766780937579</v>
+        <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P3">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q3">
-        <v>14.80602691046013</v>
+        <v>16.14628353366</v>
       </c>
       <c r="R3">
-        <v>14.80602691046013</v>
+        <v>96.87770120196001</v>
       </c>
       <c r="S3">
-        <v>0.005426243707982687</v>
+        <v>0.005437919123537564</v>
       </c>
       <c r="T3">
-        <v>0.005426243707982687</v>
+        <v>0.004683213147935467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H4">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I4">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J4">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.8206143669879</v>
+        <v>0.122567</v>
       </c>
       <c r="N4">
-        <v>19.8206143669879</v>
+        <v>0.367701</v>
       </c>
       <c r="O4">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P4">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q4">
-        <v>26.25686695435681</v>
+        <v>0.16470798594</v>
       </c>
       <c r="R4">
-        <v>26.25686695435681</v>
+        <v>0.98824791564</v>
       </c>
       <c r="S4">
-        <v>0.009622848854999781</v>
+        <v>5.547212797764206E-05</v>
       </c>
       <c r="T4">
-        <v>0.009622848854999781</v>
+        <v>4.777338411753553E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H5">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I5">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J5">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>18.3211107538974</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N5">
-        <v>18.3211107538974</v>
+        <v>0.397139</v>
       </c>
       <c r="O5">
-        <v>0.2212789736285398</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P5">
-        <v>0.2212789736285398</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q5">
-        <v>24.27043675913184</v>
+        <v>0.17789444366</v>
       </c>
       <c r="R5">
-        <v>24.27043675913184</v>
+        <v>1.06736666196</v>
       </c>
       <c r="S5">
-        <v>0.008894844346202671</v>
+        <v>5.991320511206876E-05</v>
       </c>
       <c r="T5">
-        <v>0.008894844346202671</v>
+        <v>5.159810279290496E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.5871543955302</v>
+        <v>1.34382</v>
       </c>
       <c r="H6">
-        <v>30.5871543955302</v>
+        <v>2.68764</v>
       </c>
       <c r="I6">
-        <v>0.9281357216236624</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J6">
-        <v>0.9281357216236624</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.4780344832873</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N6">
-        <v>33.4780344832873</v>
+        <v>61.789525</v>
       </c>
       <c r="O6">
-        <v>0.4043414839346897</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P6">
-        <v>0.4043414839346897</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q6">
-        <v>1023.997809599193</v>
+        <v>27.6779998285</v>
       </c>
       <c r="R6">
-        <v>1023.997809599193</v>
+        <v>166.067998971</v>
       </c>
       <c r="S6">
-        <v>0.3752837749741058</v>
+        <v>0.009321694633622738</v>
       </c>
       <c r="T6">
-        <v>0.3752837749741058</v>
+        <v>0.008027975752758531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.5871543955302</v>
+        <v>1.34382</v>
       </c>
       <c r="H7">
-        <v>30.5871543955302</v>
+        <v>2.68764</v>
       </c>
       <c r="I7">
-        <v>0.9281357216236624</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J7">
-        <v>0.9281357216236624</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1766780937579</v>
+        <v>19.558276</v>
       </c>
       <c r="N7">
-        <v>11.1766780937579</v>
+        <v>39.116552</v>
       </c>
       <c r="O7">
-        <v>0.1349898426129662</v>
+        <v>0.2272713088146052</v>
       </c>
       <c r="P7">
-        <v>0.1349898426129662</v>
+        <v>0.1908305348607893</v>
       </c>
       <c r="Q7">
-        <v>341.862778482913</v>
+        <v>26.28280245432</v>
       </c>
       <c r="R7">
-        <v>341.862778482913</v>
+        <v>105.13120981728</v>
       </c>
       <c r="S7">
-        <v>0.12528889498545</v>
+        <v>0.008851805047802795</v>
       </c>
       <c r="T7">
-        <v>0.12528889498545</v>
+        <v>0.005082200113814084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H8">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I8">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J8">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.8206143669879</v>
+        <v>33.6320075</v>
       </c>
       <c r="N8">
-        <v>19.8206143669879</v>
+        <v>67.264015</v>
       </c>
       <c r="O8">
-        <v>0.2393896998238043</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P8">
-        <v>0.2393896998238043</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q8">
-        <v>606.256191857323</v>
+        <v>1068.280023508425</v>
       </c>
       <c r="R8">
-        <v>606.256191857323</v>
+        <v>6409.68014105055</v>
       </c>
       <c r="S8">
-        <v>0.2221861317952386</v>
+        <v>0.3597868424036527</v>
       </c>
       <c r="T8">
-        <v>0.2221861317952386</v>
+        <v>0.3098535363473456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H9">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I9">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J9">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.3211107538974</v>
+        <v>12.015213</v>
       </c>
       <c r="N9">
-        <v>18.3211107538974</v>
+        <v>36.045639</v>
       </c>
       <c r="O9">
-        <v>0.2212789736285398</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P9">
-        <v>0.2212789736285398</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q9">
-        <v>560.3906433270685</v>
+        <v>381.64870253727</v>
       </c>
       <c r="R9">
-        <v>560.3906433270685</v>
+        <v>3434.83832283543</v>
       </c>
       <c r="S9">
-        <v>0.2053769198688681</v>
+        <v>0.1285357570783522</v>
       </c>
       <c r="T9">
-        <v>0.2053769198688681</v>
+        <v>0.1660452281067343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.04359631232388</v>
+        <v>31.76379</v>
       </c>
       <c r="H10">
-        <v>1.04359631232388</v>
+        <v>95.29137</v>
       </c>
       <c r="I10">
-        <v>0.03166685608923667</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J10">
-        <v>0.03166685608923667</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>33.4780344832873</v>
+        <v>0.122567</v>
       </c>
       <c r="N10">
-        <v>33.4780344832873</v>
+        <v>0.367701</v>
       </c>
       <c r="O10">
-        <v>0.4043414839346897</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P10">
-        <v>0.4043414839346897</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q10">
-        <v>34.93755333061032</v>
+        <v>3.89319244893</v>
       </c>
       <c r="R10">
-        <v>34.93755333061032</v>
+        <v>35.03873204037</v>
       </c>
       <c r="S10">
-        <v>0.01280422358266822</v>
+        <v>0.001311191248779559</v>
       </c>
       <c r="T10">
-        <v>0.01280422358266822</v>
+        <v>0.001693824776419536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.04359631232388</v>
+        <v>31.76379</v>
       </c>
       <c r="H11">
-        <v>1.04359631232388</v>
+        <v>95.29137</v>
       </c>
       <c r="I11">
-        <v>0.03166685608923667</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J11">
-        <v>0.03166685608923667</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>11.1766780937579</v>
+        <v>0.1323796666666667</v>
       </c>
       <c r="N11">
-        <v>11.1766780937579</v>
+        <v>0.397139</v>
       </c>
       <c r="O11">
-        <v>0.1349898426129662</v>
+        <v>0.001538279759615546</v>
       </c>
       <c r="P11">
-        <v>0.1349898426129662</v>
+        <v>0.001937447037358482</v>
       </c>
       <c r="Q11">
-        <v>11.66394004267684</v>
+        <v>4.20487993227</v>
       </c>
       <c r="R11">
-        <v>11.66394004267684</v>
+        <v>37.84391939043</v>
       </c>
       <c r="S11">
-        <v>0.004274703919533508</v>
+        <v>0.001416164713582681</v>
       </c>
       <c r="T11">
-        <v>0.004274703919533508</v>
+        <v>0.001829431733616384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.04359631232388</v>
+        <v>31.76379</v>
       </c>
       <c r="H12">
-        <v>1.04359631232388</v>
+        <v>95.29137</v>
       </c>
       <c r="I12">
-        <v>0.03166685608923667</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J12">
-        <v>0.03166685608923667</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.8206143669879</v>
+        <v>20.59650833333334</v>
       </c>
       <c r="N12">
-        <v>19.8206143669879</v>
+        <v>61.789525</v>
       </c>
       <c r="O12">
-        <v>0.2393896998238043</v>
+        <v>0.2393357883858265</v>
       </c>
       <c r="P12">
-        <v>0.2393896998238043</v>
+        <v>0.3014408863169769</v>
       </c>
       <c r="Q12">
-        <v>20.68472006138229</v>
+        <v>654.2231654332501</v>
       </c>
       <c r="R12">
-        <v>20.68472006138229</v>
+        <v>5888.008488899251</v>
       </c>
       <c r="S12">
-        <v>0.007580719173565976</v>
+        <v>0.2203363179492191</v>
       </c>
       <c r="T12">
-        <v>0.007580719173565976</v>
+        <v>0.2846351474926485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>31.76379</v>
+      </c>
+      <c r="H13">
+        <v>95.29137</v>
+      </c>
+      <c r="I13">
+        <v>0.9206158403440319</v>
+      </c>
+      <c r="J13">
+        <v>0.9442486418161055</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.558276</v>
+      </c>
+      <c r="N13">
+        <v>39.116552</v>
+      </c>
+      <c r="O13">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P13">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q13">
+        <v>621.24497162604</v>
+      </c>
+      <c r="R13">
+        <v>3727.46982975624</v>
+      </c>
+      <c r="S13">
+        <v>0.2092295669504457</v>
+      </c>
+      <c r="T13">
+        <v>0.1801914733593413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.260443</v>
+      </c>
+      <c r="I14">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J14">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.6320075</v>
+      </c>
+      <c r="N14">
+        <v>67.264015</v>
+      </c>
+      <c r="O14">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P14">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q14">
+        <v>2.919740309774166</v>
+      </c>
+      <c r="R14">
+        <v>17.518441858645</v>
+      </c>
+      <c r="S14">
+        <v>0.0009833415617398985</v>
+      </c>
+      <c r="T14">
+        <v>0.0008468677128570165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.260443</v>
+      </c>
+      <c r="I15">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J15">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.015213</v>
+      </c>
+      <c r="N15">
+        <v>36.045639</v>
+      </c>
+      <c r="O15">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P15">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q15">
+        <v>1.043092706453</v>
+      </c>
+      <c r="R15">
+        <v>9.387834358076999</v>
+      </c>
+      <c r="S15">
+        <v>0.0003513039867173416</v>
+      </c>
+      <c r="T15">
+        <v>0.0004538219709067274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.260443</v>
+      </c>
+      <c r="I16">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J16">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.122567</v>
+      </c>
+      <c r="N16">
+        <v>0.367701</v>
+      </c>
+      <c r="O16">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P16">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q16">
+        <v>0.01064057239366667</v>
+      </c>
+      <c r="R16">
+        <v>0.095765151543</v>
+      </c>
+      <c r="S16">
+        <v>3.583646477177259E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.629430831407221E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.260443</v>
+      </c>
+      <c r="I17">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J17">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.397139</v>
+      </c>
+      <c r="O17">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P17">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q17">
+        <v>0.01149245250855556</v>
+      </c>
+      <c r="R17">
+        <v>0.103432072577</v>
+      </c>
+      <c r="S17">
+        <v>3.870551829610742E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.000061275205215E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.260443</v>
+      </c>
+      <c r="I18">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J18">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N18">
+        <v>61.789525</v>
+      </c>
+      <c r="O18">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P18">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q18">
+        <v>1.788072139952778</v>
+      </c>
+      <c r="R18">
+        <v>16.092649259575</v>
+      </c>
+      <c r="S18">
+        <v>0.0006022061772818302</v>
+      </c>
+      <c r="T18">
+        <v>0.0007779427635307146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.260443</v>
+      </c>
+      <c r="I19">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J19">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.558276</v>
+      </c>
+      <c r="N19">
+        <v>39.116552</v>
+      </c>
+      <c r="O19">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P19">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q19">
+        <v>1.697938692089333</v>
+      </c>
+      <c r="R19">
+        <v>10.187632152536</v>
+      </c>
+      <c r="S19">
+        <v>0.0005718500647569128</v>
+      </c>
+      <c r="T19">
+        <v>0.0004924853939672283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.061537</v>
+      </c>
+      <c r="H20">
+        <v>0.184611</v>
+      </c>
+      <c r="I20">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J20">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>33.6320075</v>
+      </c>
+      <c r="N20">
+        <v>67.264015</v>
+      </c>
+      <c r="O20">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P20">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q20">
+        <v>2.0696128455275</v>
+      </c>
+      <c r="R20">
+        <v>12.417677073165</v>
+      </c>
+      <c r="S20">
+        <v>0.0006970264858505102</v>
+      </c>
+      <c r="T20">
+        <v>0.0006002891048645833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.061537</v>
+      </c>
+      <c r="H21">
+        <v>0.184611</v>
+      </c>
+      <c r="I21">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J21">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.015213</v>
+      </c>
+      <c r="N21">
+        <v>36.045639</v>
+      </c>
+      <c r="O21">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P21">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q21">
+        <v>0.7393801623810001</v>
+      </c>
+      <c r="R21">
+        <v>6.654421461429</v>
+      </c>
+      <c r="S21">
+        <v>0.0002490164077816457</v>
+      </c>
+      <c r="T21">
+        <v>0.0003216846982681886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.061537</v>
+      </c>
+      <c r="H22">
+        <v>0.184611</v>
+      </c>
+      <c r="I22">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J22">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.122567</v>
+      </c>
+      <c r="N22">
+        <v>0.367701</v>
+      </c>
+      <c r="O22">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P22">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q22">
+        <v>0.007542405479</v>
+      </c>
+      <c r="R22">
+        <v>0.06788164931100001</v>
+      </c>
+      <c r="S22">
+        <v>2.540212483338661E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.28150057869445E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="H13">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="I13">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="J13">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.3211107538974</v>
-      </c>
-      <c r="N13">
-        <v>18.3211107538974</v>
-      </c>
-      <c r="O13">
-        <v>0.2212789736285398</v>
-      </c>
-      <c r="P13">
-        <v>0.2212789736285398</v>
-      </c>
-      <c r="Q13">
-        <v>19.11984362044471</v>
-      </c>
-      <c r="R13">
-        <v>19.11984362044471</v>
-      </c>
-      <c r="S13">
-        <v>0.007007209413468965</v>
-      </c>
-      <c r="T13">
-        <v>0.007007209413468965</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.061537</v>
+      </c>
+      <c r="H23">
+        <v>0.184611</v>
+      </c>
+      <c r="I23">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J23">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.397139</v>
+      </c>
+      <c r="O23">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P23">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q23">
+        <v>0.008146247547666668</v>
+      </c>
+      <c r="R23">
+        <v>0.073316227929</v>
+      </c>
+      <c r="S23">
+        <v>2.743580913352514E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.544216247228415E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.061537</v>
+      </c>
+      <c r="H24">
+        <v>0.184611</v>
+      </c>
+      <c r="I24">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J24">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N24">
+        <v>61.789525</v>
+      </c>
+      <c r="O24">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P24">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q24">
+        <v>1.267447333308334</v>
+      </c>
+      <c r="R24">
+        <v>11.407025999775</v>
+      </c>
+      <c r="S24">
+        <v>0.0004268645522981073</v>
+      </c>
+      <c r="T24">
+        <v>0.000551432718553268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.061537</v>
+      </c>
+      <c r="H25">
+        <v>0.184611</v>
+      </c>
+      <c r="I25">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J25">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.558276</v>
+      </c>
+      <c r="N25">
+        <v>39.116552</v>
+      </c>
+      <c r="O25">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P25">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q25">
+        <v>1.203557630212</v>
+      </c>
+      <c r="R25">
+        <v>7.221345781271999</v>
+      </c>
+      <c r="S25">
+        <v>0.0004053470905527828</v>
+      </c>
+      <c r="T25">
+        <v>0.000349090668843793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.2468015</v>
+      </c>
+      <c r="H26">
+        <v>2.493603</v>
+      </c>
+      <c r="I26">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J26">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>33.6320075</v>
+      </c>
+      <c r="N26">
+        <v>67.264015</v>
+      </c>
+      <c r="O26">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P26">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q26">
+        <v>41.93243739901126</v>
+      </c>
+      <c r="R26">
+        <v>167.729749596045</v>
+      </c>
+      <c r="S26">
+        <v>0.01412245751496084</v>
+      </c>
+      <c r="T26">
+        <v>0.008108307266401459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2468015</v>
+      </c>
+      <c r="H27">
+        <v>2.493603</v>
+      </c>
+      <c r="I27">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J27">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.015213</v>
+      </c>
+      <c r="N27">
+        <v>36.045639</v>
+      </c>
+      <c r="O27">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P27">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q27">
+        <v>14.9805855912195</v>
+      </c>
+      <c r="R27">
+        <v>89.88351354731701</v>
+      </c>
+      <c r="S27">
+        <v>0.005045322826052091</v>
+      </c>
+      <c r="T27">
+        <v>0.004345103643096294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2468015</v>
+      </c>
+      <c r="H28">
+        <v>2.493603</v>
+      </c>
+      <c r="I28">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J28">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.122567</v>
+      </c>
+      <c r="N28">
+        <v>0.367701</v>
+      </c>
+      <c r="O28">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P28">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q28">
+        <v>0.1528167194505</v>
+      </c>
+      <c r="R28">
+        <v>0.9169003167030001</v>
+      </c>
+      <c r="S28">
+        <v>5.146725928377022E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.4324334343751E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2468015</v>
+      </c>
+      <c r="H29">
+        <v>2.493603</v>
+      </c>
+      <c r="I29">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J29">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.397139</v>
+      </c>
+      <c r="O29">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P29">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q29">
+        <v>0.1650511669695</v>
+      </c>
+      <c r="R29">
+        <v>0.9903070018170002</v>
+      </c>
+      <c r="S29">
+        <v>5.55877081778326E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.78729234267596E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2468015</v>
+      </c>
+      <c r="H30">
+        <v>2.493603</v>
+      </c>
+      <c r="I30">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J30">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N30">
+        <v>61.789525</v>
+      </c>
+      <c r="O30">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P30">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q30">
+        <v>25.6797574847625</v>
+      </c>
+      <c r="R30">
+        <v>154.078544908575</v>
+      </c>
+      <c r="S30">
+        <v>0.008648705073404758</v>
+      </c>
+      <c r="T30">
+        <v>0.007448387589485917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2468015</v>
+      </c>
+      <c r="H31">
+        <v>2.493603</v>
+      </c>
+      <c r="I31">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J31">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.558276</v>
+      </c>
+      <c r="N31">
+        <v>39.116552</v>
+      </c>
+      <c r="O31">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P31">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q31">
+        <v>24.385287854214</v>
+      </c>
+      <c r="R31">
+        <v>97.54115141685601</v>
+      </c>
+      <c r="S31">
+        <v>0.00821273966104694</v>
+      </c>
+      <c r="T31">
+        <v>0.004715285324822946</v>
       </c>
     </row>
   </sheetData>
